--- a/Integration/Fungal_Models.xlsx
+++ b/Integration/Fungal_Models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seaver/Projects/ModelSEEDDatabase/Integration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jplfaria/repos/ModelSEEDDatabase/Integration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EBDE092-EC3B-8F41-AF92-A473D74DE7C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9894D2-8296-4848-A2BC-1C2768DC11BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1080" windowWidth="37160" windowHeight="22440" xr2:uid="{21CDB662-67D8-4CA8-B684-CB4519F661E0}"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="37160" windowHeight="19120" xr2:uid="{21CDB662-67D8-4CA8-B684-CB4519F661E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Fungal_Models" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>iMM904</t>
   </si>
@@ -226,6 +226,18 @@
   </si>
   <si>
     <t>PLoS (SBML)</t>
+  </si>
+  <si>
+    <t>iJB1325</t>
+  </si>
+  <si>
+    <t>A community-driven reconstruction of the Aspergillus niger metabolic network.</t>
+  </si>
+  <si>
+    <t>Aspergillus niger ATCC 1015</t>
+  </si>
+  <si>
+    <t>Aspergillus niger CBS 513.88</t>
   </si>
 </sst>
 </file>
@@ -671,17 +683,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D46EC4-A80C-4D76-904D-ECD5CCB116FF}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="88.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
@@ -1080,8 +1092,48 @@
         <v>59</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="13">
+        <v>30275963</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="13">
+        <v>30275963</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:F19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F19">
     <sortCondition ref="C1"/>
   </sortState>
   <hyperlinks>
@@ -1122,6 +1174,10 @@
     <hyperlink ref="F18" r:id="rId35" xr:uid="{CC36898F-6A0D-3A41-B518-122D66EA3273}"/>
     <hyperlink ref="F19" r:id="rId36" xr:uid="{B0BAEBDD-B816-5543-8C50-2D1F9BB4996E}"/>
     <hyperlink ref="F20" r:id="rId37" xr:uid="{B28921F2-BDBB-184F-A66F-AB1EE22EFA4F}"/>
+    <hyperlink ref="B21" r:id="rId38" display="https://www.ncbi.nlm.nih.gov/pubmed/30275963" xr:uid="{28AF1510-45AD-4044-B923-CC84E461B10E}"/>
+    <hyperlink ref="B22" r:id="rId39" display="https://www.ncbi.nlm.nih.gov/pubmed/30275963" xr:uid="{592956B6-1EFA-9949-B324-D349D9FBF85D}"/>
+    <hyperlink ref="F21" r:id="rId40" xr:uid="{40CA0CF1-2FA5-B34E-B70D-A042F966AD05}"/>
+    <hyperlink ref="F22" r:id="rId41" xr:uid="{D7C623AB-0B07-0A4B-B1CF-725FCC9CBB4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Integration/Fungal_Models.xlsx
+++ b/Integration/Fungal_Models.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jplfaria/repos/ModelSEEDDatabase/Integration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seaver/Projects/ModelSEEDDatabase/Integration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9894D2-8296-4848-A2BC-1C2768DC11BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E52ACD2-EA10-BB42-AF86-48FF8A4EDD5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="37160" windowHeight="19120" xr2:uid="{21CDB662-67D8-4CA8-B684-CB4519F661E0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>iMM904</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>Aspergillus niger CBS 513.88</t>
+  </si>
+  <si>
+    <t>iOD907</t>
+  </si>
+  <si>
+    <t>Kluyveromyces lactis</t>
+  </si>
+  <si>
+    <t>iOD907, the first genome‐scale metabolic model for the milk yeast Kluyveromyces lactis</t>
   </si>
 </sst>
 </file>
@@ -683,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D46EC4-A80C-4D76-904D-ECD5CCB116FF}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -998,118 +1007,121 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="13">
+        <v>24777859</v>
+      </c>
+      <c r="C16" s="14">
+        <v>2014</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B17" s="8">
         <v>24374726</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C17" s="7">
         <v>2014</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="8">
-        <v>25582171</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2015</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B18" s="8">
-        <v>26915092</v>
-      </c>
-      <c r="C18" s="11">
-        <v>2016</v>
+        <v>25582171</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2015</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="8">
-        <v>26911256</v>
+        <v>26915092</v>
       </c>
       <c r="C19" s="11">
         <v>2016</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>42</v>
+      <c r="D19" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="8">
+        <v>26911256</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2016</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="11">
-        <v>2018</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="B21" s="13">
-        <v>30275963</v>
+        <v>30634957</v>
       </c>
       <c r="C21" s="11">
         <v>2018</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1123,7 +1135,7 @@
         <v>2018</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>68</v>
@@ -1132,8 +1144,28 @@
         <v>62</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="13">
+        <v>30275963</v>
+      </c>
+      <c r="C23" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F19">
+  <sortState ref="A2:F20">
     <sortCondition ref="C1"/>
   </sortState>
   <hyperlinks>
@@ -1143,7 +1175,7 @@
     <hyperlink ref="F5" r:id="rId4" xr:uid="{497BCF5A-6215-44F3-AEA2-DC07A787C173}"/>
     <hyperlink ref="F9" r:id="rId5" display="PLoS" xr:uid="{D73EBA1B-35B6-4F25-BB0A-83D88AF2537C}"/>
     <hyperlink ref="F11" r:id="rId6" display="PLoS" xr:uid="{78F9DAE4-660D-491A-92D4-8A1283914712}"/>
-    <hyperlink ref="F16" r:id="rId7" xr:uid="{1AA13B5B-E6CD-48C6-8F5A-C9B6C1E63D99}"/>
+    <hyperlink ref="F17" r:id="rId7" xr:uid="{1AA13B5B-E6CD-48C6-8F5A-C9B6C1E63D99}"/>
     <hyperlink ref="F2" r:id="rId8" xr:uid="{ECCC3BEF-1709-4A8F-83CB-9D5DE4D7583C}"/>
     <hyperlink ref="F14" r:id="rId9" xr:uid="{E8A2F183-DE6A-40C7-A8EC-E82EA8A33574}"/>
     <hyperlink ref="F15" r:id="rId10" xr:uid="{38A552CE-CF44-458A-9ADE-FD49E108E362}"/>
@@ -1154,30 +1186,33 @@
     <hyperlink ref="B10" r:id="rId15" display="https://www.ncbi.nlm.nih.gov/pubmed/23631471" xr:uid="{487F4384-3413-6349-961C-7F9129F7CE91}"/>
     <hyperlink ref="B6" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/pubmed/22472172" xr:uid="{D3A753C6-BD51-DE49-BE07-1BFB9441902D}"/>
     <hyperlink ref="B11" r:id="rId17" display="https://www.ncbi.nlm.nih.gov/pubmed/23555215" xr:uid="{4BE88124-AE64-184C-BA33-8B58317E447C}"/>
-    <hyperlink ref="B16" r:id="rId18" display="https://www.ncbi.nlm.nih.gov/pubmed/24374726" xr:uid="{AFAF9B79-17EB-104D-8E5D-15CC5D2FE69A}"/>
+    <hyperlink ref="B17" r:id="rId18" display="https://www.ncbi.nlm.nih.gov/pubmed/24374726" xr:uid="{AFAF9B79-17EB-104D-8E5D-15CC5D2FE69A}"/>
     <hyperlink ref="B2" r:id="rId19" display="https://www.ncbi.nlm.nih.gov/pubmed/18364712" xr:uid="{6CF884F5-E510-724C-A937-331A0E3044C9}"/>
     <hyperlink ref="B13" r:id="rId20" display="https://www.ncbi.nlm.nih.gov/pubmed/23172360" xr:uid="{CE6ACD28-D276-B746-B20E-B580321A7F68}"/>
     <hyperlink ref="B14" r:id="rId21" display="https://www.ncbi.nlm.nih.gov/pubmed/23935056" xr:uid="{1AC9B308-E617-0E4A-983C-D8846F7BA978}"/>
     <hyperlink ref="B12" r:id="rId22" display="https://www.ncbi.nlm.nih.gov/pubmed/23624532" xr:uid="{302143ED-180F-4546-8E70-9A5ED2A53604}"/>
     <hyperlink ref="B7" r:id="rId23" display="https://www.ncbi.nlm.nih.gov/pubmed/22472172" xr:uid="{A63CD501-E689-4642-9A85-3128FD08DBEB}"/>
     <hyperlink ref="B15" r:id="rId24" display="https://www.ncbi.nlm.nih.gov/pubmed/24678285" xr:uid="{F50EFF7C-79EE-CC44-9FB6-2499F7A480EB}"/>
-    <hyperlink ref="B19" r:id="rId25" display="https://www.ncbi.nlm.nih.gov/pubmed/26911256" xr:uid="{CFEA73B1-17F1-544A-A405-6EDF49D4738B}"/>
-    <hyperlink ref="B17" r:id="rId26" display="25582171" xr:uid="{4EFC30D3-1F22-0043-9A44-D785CA00D757}"/>
+    <hyperlink ref="B20" r:id="rId25" display="https://www.ncbi.nlm.nih.gov/pubmed/26911256" xr:uid="{CFEA73B1-17F1-544A-A405-6EDF49D4738B}"/>
+    <hyperlink ref="B18" r:id="rId26" display="25582171" xr:uid="{4EFC30D3-1F22-0043-9A44-D785CA00D757}"/>
     <hyperlink ref="B8" r:id="rId27" display="23236514" xr:uid="{CFAD1147-D8F7-654C-A643-7BACB71888A9}"/>
     <hyperlink ref="B3" r:id="rId28" display="18500999" xr:uid="{D48339C4-B464-4F49-B96A-1A5B9CC79BEB}"/>
-    <hyperlink ref="B18" r:id="rId29" display="26915092" xr:uid="{F7D0BC7B-7F7D-504F-A7BF-5D253EDB9B74}"/>
+    <hyperlink ref="B19" r:id="rId29" display="26915092" xr:uid="{F7D0BC7B-7F7D-504F-A7BF-5D253EDB9B74}"/>
     <hyperlink ref="F3" r:id="rId30" xr:uid="{1FA8CF0C-2F9B-204B-8D87-7F84658924FF}"/>
     <hyperlink ref="F12" r:id="rId31" xr:uid="{C466410B-73F7-4745-A84D-7FF48A27C35D}"/>
     <hyperlink ref="F8" r:id="rId32" xr:uid="{A5534536-065E-E149-AF61-511D9F05367B}"/>
     <hyperlink ref="F13" r:id="rId33" xr:uid="{8DC353B7-6441-3B43-87E4-C7B0FEFB470E}"/>
-    <hyperlink ref="F17" r:id="rId34" xr:uid="{AF0E6037-ED9F-8149-AD99-9156EF72FBA3}"/>
-    <hyperlink ref="F18" r:id="rId35" xr:uid="{CC36898F-6A0D-3A41-B518-122D66EA3273}"/>
-    <hyperlink ref="F19" r:id="rId36" xr:uid="{B0BAEBDD-B816-5543-8C50-2D1F9BB4996E}"/>
-    <hyperlink ref="F20" r:id="rId37" xr:uid="{B28921F2-BDBB-184F-A66F-AB1EE22EFA4F}"/>
-    <hyperlink ref="B21" r:id="rId38" display="https://www.ncbi.nlm.nih.gov/pubmed/30275963" xr:uid="{28AF1510-45AD-4044-B923-CC84E461B10E}"/>
-    <hyperlink ref="B22" r:id="rId39" display="https://www.ncbi.nlm.nih.gov/pubmed/30275963" xr:uid="{592956B6-1EFA-9949-B324-D349D9FBF85D}"/>
-    <hyperlink ref="F21" r:id="rId40" xr:uid="{40CA0CF1-2FA5-B34E-B70D-A042F966AD05}"/>
-    <hyperlink ref="F22" r:id="rId41" xr:uid="{D7C623AB-0B07-0A4B-B1CF-725FCC9CBB4D}"/>
+    <hyperlink ref="F18" r:id="rId34" xr:uid="{AF0E6037-ED9F-8149-AD99-9156EF72FBA3}"/>
+    <hyperlink ref="F19" r:id="rId35" xr:uid="{CC36898F-6A0D-3A41-B518-122D66EA3273}"/>
+    <hyperlink ref="F20" r:id="rId36" xr:uid="{B0BAEBDD-B816-5543-8C50-2D1F9BB4996E}"/>
+    <hyperlink ref="F21" r:id="rId37" xr:uid="{B28921F2-BDBB-184F-A66F-AB1EE22EFA4F}"/>
+    <hyperlink ref="B22" r:id="rId38" display="https://www.ncbi.nlm.nih.gov/pubmed/30275963" xr:uid="{28AF1510-45AD-4044-B923-CC84E461B10E}"/>
+    <hyperlink ref="B23" r:id="rId39" display="https://www.ncbi.nlm.nih.gov/pubmed/30275963" xr:uid="{592956B6-1EFA-9949-B324-D349D9FBF85D}"/>
+    <hyperlink ref="F22" r:id="rId40" xr:uid="{40CA0CF1-2FA5-B34E-B70D-A042F966AD05}"/>
+    <hyperlink ref="F23" r:id="rId41" xr:uid="{D7C623AB-0B07-0A4B-B1CF-725FCC9CBB4D}"/>
+    <hyperlink ref="F16" r:id="rId42" xr:uid="{11115B0F-0303-534E-B8CC-94EBC74748FF}"/>
+    <hyperlink ref="B21" r:id="rId43" display="30634957" xr:uid="{FA4C41A6-C073-D34B-8EB2-12E6C04E346E}"/>
+    <hyperlink ref="B16" r:id="rId44" display="https://www.ncbi.nlm.nih.gov/pubmed/24777859" xr:uid="{740B408B-CD6A-784C-B462-BC91863BAA64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
